--- a/Inputs Archivos Excel.xlsx
+++ b/Inputs Archivos Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BC\0. Modelos Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0. Andes Analytics\Zurich Santander\Licitacion-Reaseguro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7691995C-651B-4656-95DB-1429D2FDD7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E358E-5777-43A1-98D8-AEEA62771F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" xr2:uid="{ECA818C7-E9F8-41B1-8CF4-158233F956CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECA818C7-E9F8-41B1-8CF4-158233F956CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Archivos" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>archivo_parametros</t>
   </si>
   <si>
-    <t>Parametros Reaseguro.xlsx</t>
-  </si>
-  <si>
     <t>archivo_querys</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Parametros Calculo.xlsx</t>
+  </si>
+  <si>
+    <t>Parametros Reaseguro New.xlsx</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0EC045-A5D7-4472-9E60-5E2ABBD5F32E}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -588,13 +588,13 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,21 +602,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
